--- a/SAVfile.xlsx
+++ b/SAVfile.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\source\repos\civ2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2DEB1-515D-4612-BC34-5498F712A654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="457">
   <si>
     <t>BYTE OFFSET (DEC)</t>
   </si>
@@ -823,135 +840,6 @@
   </si>
   <si>
     <t>offset_B2=13702+7*Xdim*Ydim</t>
-  </si>
-  <si>
-    <t>1000 0000</t>
-  </si>
-  <si>
-    <t>0000 0001</t>
-  </si>
-  <si>
-    <t>1000 0001</t>
-  </si>
-  <si>
-    <t>0000 0010</t>
-  </si>
-  <si>
-    <t>1000 0010</t>
-  </si>
-  <si>
-    <t>Byte1=0(hex)=0(dec) … desert, no river</t>
-  </si>
-  <si>
-    <t>Byte1=80(hex)=128(dec) … desert, river</t>
-  </si>
-  <si>
-    <t>Byte2=1(hex)=1(dec) … plains, no river</t>
-  </si>
-  <si>
-    <t>Byte2=81(hex)=129(dec) … plains, river</t>
-  </si>
-  <si>
-    <t>Byte3=2(hex)=2(dec) … grassland, no river</t>
-  </si>
-  <si>
-    <t>Byte3=82(hex)=130(dec) … grassland, river</t>
-  </si>
-  <si>
-    <t>1000 0011</t>
-  </si>
-  <si>
-    <t>0000 0011</t>
-  </si>
-  <si>
-    <t>Byte4=3(hex)=3(dec) … forest, no river</t>
-  </si>
-  <si>
-    <t>Byte4=83(hex)=131(dec) … forest, river</t>
-  </si>
-  <si>
-    <t>0000 0100</t>
-  </si>
-  <si>
-    <t>1000 0100</t>
-  </si>
-  <si>
-    <t>Byte5=4(hex)=4(dec) … hills, no river</t>
-  </si>
-  <si>
-    <t>Byte5=84(hex)=132(dec) … hills, river</t>
-  </si>
-  <si>
-    <t>0000 0101</t>
-  </si>
-  <si>
-    <t>1000 0101</t>
-  </si>
-  <si>
-    <t>Byte6=5(hex)=5(dec) … mountains, no river</t>
-  </si>
-  <si>
-    <t>Byte6=85(hex)=133(dec) … mountains, river</t>
-  </si>
-  <si>
-    <t>0000 0110</t>
-  </si>
-  <si>
-    <t>1000 0110</t>
-  </si>
-  <si>
-    <t>Byte7=6(hex)=6(dec) … tundra, no river</t>
-  </si>
-  <si>
-    <t>Byte7=86(hex)=134(dec) … tundra, river</t>
-  </si>
-  <si>
-    <t>0000 0111</t>
-  </si>
-  <si>
-    <t>1000 0111</t>
-  </si>
-  <si>
-    <t>Byte8=87(hex)=135(dec) … glacier, river</t>
-  </si>
-  <si>
-    <t>Byte8=7(hex)=7(dec) … glacier, no river</t>
-  </si>
-  <si>
-    <t>0000 1000</t>
-  </si>
-  <si>
-    <t>1000 1000</t>
-  </si>
-  <si>
-    <t>Byte9=8(hex)=8(dec) … swamp, no river</t>
-  </si>
-  <si>
-    <t>Byte9=88(hex)=136(dec) … swamp, river</t>
-  </si>
-  <si>
-    <t>0000 1001</t>
-  </si>
-  <si>
-    <t>1000 1001</t>
-  </si>
-  <si>
-    <t>Byte10=9(hex)=9(dec) … jungle, no river</t>
-  </si>
-  <si>
-    <t>Byte10=89(hex)=137(dec) … jungle, river</t>
-  </si>
-  <si>
-    <t>0000 1010</t>
-  </si>
-  <si>
-    <t>1000 1010</t>
-  </si>
-  <si>
-    <t>Byte11=A(hex)=10(dec) … ocean, no river</t>
-  </si>
-  <si>
-    <t>Byte11=4A(hex)=74(dec) … ocean, no river</t>
   </si>
   <si>
     <t>offset_B2 + 6*i + 0</t>
@@ -1564,12 +1452,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>X cursor position.</t>
-  </si>
-  <si>
-    <t>Y cursor position.</t>
-  </si>
-  <si>
     <t>offsetO = offsetC + noCities*reservedBytes</t>
   </si>
   <si>
@@ -1625,13 +1507,94 @@
   </si>
   <si>
     <t>1st, 2nd and 3rd trade commodities supplied  (listed in RULES.txt)</t>
+  </si>
+  <si>
+    <t>offsetO + 1425-1426</t>
+  </si>
+  <si>
+    <t>offsetO + 1427-1428</t>
+  </si>
+  <si>
+    <t>Active cursor X position.</t>
+  </si>
+  <si>
+    <t>Active cursor Y position.</t>
+  </si>
+  <si>
+    <t>Tile clicked with mouse X position (does not count if clicked on city).</t>
+  </si>
+  <si>
+    <t>Tile clicked with mouse Y position (does not count if clicked on city).</t>
+  </si>
+  <si>
+    <t>---- 0000</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>plains</t>
+  </si>
+  <si>
+    <t>---- 00010</t>
+  </si>
+  <si>
+    <t>---- 0011</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>---- 0100</t>
+  </si>
+  <si>
+    <t>hills</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>---- 0101</t>
+  </si>
+  <si>
+    <t>tundra</t>
+  </si>
+  <si>
+    <t>---- 0110</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>---- 0111</t>
+  </si>
+  <si>
+    <t>swamp</t>
+  </si>
+  <si>
+    <t>---- 1000</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>---- 1001</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>---- 1010</t>
+  </si>
+  <si>
+    <t>river present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,10 +2029,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2079,33 +2050,45 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1025" name="Group 1"/>
+        <xdr:cNvPr id="1025" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10458450" y="52616100"/>
-          <a:ext cx="2628900" cy="2819400"/>
+          <a:off x="10723245" y="47823120"/>
+          <a:ext cx="2628900" cy="2693670"/>
           <a:chOff x="2669" y="2129"/>
           <a:chExt cx="2896" cy="2896"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1029" name="AutoShape 2"/>
+          <xdr:cNvPr id="1029" name="AutoShape 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2129,7 +2112,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1030" name="Line 3"/>
+          <xdr:cNvPr id="1030" name="Line 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2155,7 +2144,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1031" name="Line 4"/>
+          <xdr:cNvPr id="1031" name="Line 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2181,7 +2176,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1032" name="Line 5"/>
+          <xdr:cNvPr id="1032" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2207,7 +2208,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1033" name="Line 6"/>
+          <xdr:cNvPr id="1033" name="Line 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2233,7 +2240,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Text Box 7"/>
+          <xdr:cNvPr id="2" name="Text Box 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2292,7 +2305,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1035" name="Line 8"/>
+          <xdr:cNvPr id="1035" name="Line 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2318,7 +2337,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1036" name="Line 9"/>
+          <xdr:cNvPr id="1036" name="Line 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2344,7 +2369,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1037" name="Line 10"/>
+          <xdr:cNvPr id="1037" name="Line 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2370,7 +2401,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1038" name="Line 11"/>
+          <xdr:cNvPr id="1038" name="Line 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2396,7 +2433,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2455,7 +2498,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1040" name="Line 13"/>
+          <xdr:cNvPr id="1040" name="Line 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2481,7 +2530,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1041" name="Line 14"/>
+          <xdr:cNvPr id="1041" name="Line 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2507,7 +2562,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1042" name="Line 15"/>
+          <xdr:cNvPr id="1042" name="Line 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2533,7 +2594,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1043" name="Line 16"/>
+          <xdr:cNvPr id="1043" name="Line 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2559,7 +2626,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 17"/>
+          <xdr:cNvPr id="4" name="Text Box 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2618,7 +2691,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1045" name="Line 18"/>
+          <xdr:cNvPr id="1045" name="Line 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2644,7 +2723,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1046" name="Line 19"/>
+          <xdr:cNvPr id="1046" name="Line 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2670,7 +2755,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1047" name="Line 20"/>
+          <xdr:cNvPr id="1047" name="Line 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2696,7 +2787,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1048" name="Line 21"/>
+          <xdr:cNvPr id="1048" name="Line 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2722,7 +2819,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 22"/>
+          <xdr:cNvPr id="5" name="Text Box 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2781,7 +2884,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1050" name="Line 23"/>
+          <xdr:cNvPr id="1050" name="Line 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2807,7 +2916,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1051" name="Line 24"/>
+          <xdr:cNvPr id="1051" name="Line 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2833,7 +2948,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1052" name="Line 25"/>
+          <xdr:cNvPr id="1052" name="Line 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2859,7 +2980,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1053" name="Line 26"/>
+          <xdr:cNvPr id="1053" name="Line 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2885,7 +3012,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 27"/>
+          <xdr:cNvPr id="6" name="Text Box 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2944,7 +3077,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1055" name="Line 28"/>
+          <xdr:cNvPr id="1055" name="Line 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2970,7 +3109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1056" name="Line 29"/>
+          <xdr:cNvPr id="1056" name="Line 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2996,7 +3141,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1057" name="Line 30"/>
+          <xdr:cNvPr id="1057" name="Line 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3022,7 +3173,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1058" name="Line 31"/>
+          <xdr:cNvPr id="1058" name="Line 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3048,7 +3205,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 32"/>
+          <xdr:cNvPr id="7" name="Text Box 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3107,7 +3270,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1060" name="Line 33"/>
+          <xdr:cNvPr id="1060" name="Line 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3133,7 +3302,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1061" name="Line 34"/>
+          <xdr:cNvPr id="1061" name="Line 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3159,7 +3334,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1062" name="Line 35"/>
+          <xdr:cNvPr id="1062" name="Line 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3185,7 +3366,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1063" name="Line 36"/>
+          <xdr:cNvPr id="1063" name="Line 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3211,7 +3398,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 37"/>
+          <xdr:cNvPr id="8" name="Text Box 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3270,7 +3463,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1065" name="Line 38"/>
+          <xdr:cNvPr id="1065" name="Line 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3296,7 +3495,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1066" name="Line 39"/>
+          <xdr:cNvPr id="1066" name="Line 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3322,7 +3527,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1067" name="Line 40"/>
+          <xdr:cNvPr id="1067" name="Line 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3348,7 +3559,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1068" name="Line 41"/>
+          <xdr:cNvPr id="1068" name="Line 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3374,7 +3591,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 42"/>
+          <xdr:cNvPr id="9" name="Text Box 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3433,7 +3656,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1070" name="Line 43"/>
+          <xdr:cNvPr id="1070" name="Line 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3459,7 +3688,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1071" name="Line 44"/>
+          <xdr:cNvPr id="1071" name="Line 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3485,7 +3720,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1069" name="Text Box 45"/>
+          <xdr:cNvPr id="1069" name="Text Box 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3544,7 +3785,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1073" name="Line 46"/>
+          <xdr:cNvPr id="1073" name="Line 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3570,7 +3817,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1074" name="Line 47"/>
+          <xdr:cNvPr id="1074" name="Line 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3596,7 +3849,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1075" name="Line 48"/>
+          <xdr:cNvPr id="1075" name="Line 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3622,7 +3881,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1076" name="Line 49"/>
+          <xdr:cNvPr id="1076" name="Line 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3648,7 +3913,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 50"/>
+          <xdr:cNvPr id="10" name="Text Box 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3707,7 +3978,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1078" name="Line 51"/>
+          <xdr:cNvPr id="1078" name="Line 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3733,7 +4010,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1079" name="Line 52"/>
+          <xdr:cNvPr id="1079" name="Line 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3759,7 +4042,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1080" name="Line 53"/>
+          <xdr:cNvPr id="1080" name="Line 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3785,7 +4074,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1081" name="Line 54"/>
+          <xdr:cNvPr id="1081" name="Line 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3811,7 +4106,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 55"/>
+          <xdr:cNvPr id="11" name="Text Box 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3870,7 +4171,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1083" name="Line 56"/>
+          <xdr:cNvPr id="1083" name="Line 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3896,7 +4203,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1084" name="Line 57"/>
+          <xdr:cNvPr id="1084" name="Line 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3922,7 +4235,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1085" name="Line 58"/>
+          <xdr:cNvPr id="1085" name="Line 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3948,7 +4267,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1086" name="Line 59"/>
+          <xdr:cNvPr id="1086" name="Line 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3974,7 +4299,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 60"/>
+          <xdr:cNvPr id="12" name="Text Box 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4033,7 +4364,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1088" name="Line 61"/>
+          <xdr:cNvPr id="1088" name="Line 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4059,7 +4396,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1089" name="Line 62"/>
+          <xdr:cNvPr id="1089" name="Line 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4085,7 +4428,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1090" name="Line 63"/>
+          <xdr:cNvPr id="1090" name="Line 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4111,7 +4460,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1091" name="Line 64"/>
+          <xdr:cNvPr id="1091" name="Line 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4137,7 +4492,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Text Box 65"/>
+          <xdr:cNvPr id="13" name="Text Box 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4196,7 +4557,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1093" name="Line 66"/>
+          <xdr:cNvPr id="1093" name="Line 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4222,7 +4589,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1094" name="Line 67"/>
+          <xdr:cNvPr id="1094" name="Line 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4248,7 +4621,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1095" name="Line 68"/>
+          <xdr:cNvPr id="1095" name="Line 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4274,7 +4653,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1096" name="Line 69"/>
+          <xdr:cNvPr id="1096" name="Line 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4300,7 +4685,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Text Box 70"/>
+          <xdr:cNvPr id="14" name="Text Box 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4359,7 +4750,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1098" name="Line 71"/>
+          <xdr:cNvPr id="1098" name="Line 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4385,7 +4782,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1099" name="Line 72"/>
+          <xdr:cNvPr id="1099" name="Line 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4411,7 +4814,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1100" name="Line 73"/>
+          <xdr:cNvPr id="1100" name="Line 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4437,7 +4846,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1101" name="Line 74"/>
+          <xdr:cNvPr id="1101" name="Line 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4463,7 +4878,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Text Box 75"/>
+          <xdr:cNvPr id="15" name="Text Box 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4522,7 +4943,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1103" name="Line 76"/>
+          <xdr:cNvPr id="1103" name="Line 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4548,7 +4975,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1104" name="Line 77"/>
+          <xdr:cNvPr id="1104" name="Line 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4574,7 +5007,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1105" name="Line 78"/>
+          <xdr:cNvPr id="1105" name="Line 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4600,7 +5039,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1106" name="Line 79"/>
+          <xdr:cNvPr id="1106" name="Line 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4626,7 +5071,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Text Box 80"/>
+          <xdr:cNvPr id="16" name="Text Box 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4685,7 +5136,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1108" name="Line 81"/>
+          <xdr:cNvPr id="1108" name="Line 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4711,7 +5168,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1109" name="Line 82"/>
+          <xdr:cNvPr id="1109" name="Line 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4737,7 +5200,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1110" name="Line 83"/>
+          <xdr:cNvPr id="1110" name="Line 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4763,7 +5232,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1111" name="Line 84"/>
+          <xdr:cNvPr id="1111" name="Line 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4789,7 +5264,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Text Box 85"/>
+          <xdr:cNvPr id="17" name="Text Box 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4848,7 +5329,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1113" name="Line 86"/>
+          <xdr:cNvPr id="1113" name="Line 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4874,7 +5361,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1114" name="Line 87"/>
+          <xdr:cNvPr id="1114" name="Line 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4900,7 +5393,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1115" name="Line 88"/>
+          <xdr:cNvPr id="1115" name="Line 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4926,7 +5425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1116" name="Line 89"/>
+          <xdr:cNvPr id="1116" name="Line 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4952,7 +5457,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Text Box 90"/>
+          <xdr:cNvPr id="18" name="Text Box 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5011,7 +5522,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1118" name="Line 91"/>
+          <xdr:cNvPr id="1118" name="Line 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5037,7 +5554,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1119" name="Line 92"/>
+          <xdr:cNvPr id="1119" name="Line 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5063,7 +5586,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1120" name="Line 93"/>
+          <xdr:cNvPr id="1120" name="Line 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5089,7 +5618,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1121" name="Line 94"/>
+          <xdr:cNvPr id="1121" name="Line 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5115,7 +5650,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Text Box 95"/>
+          <xdr:cNvPr id="19" name="Text Box 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5174,7 +5715,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1123" name="Line 96"/>
+          <xdr:cNvPr id="1123" name="Line 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5200,7 +5747,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1124" name="Line 97"/>
+          <xdr:cNvPr id="1124" name="Line 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5226,7 +5779,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1125" name="Line 98"/>
+          <xdr:cNvPr id="1125" name="Line 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5252,7 +5811,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1126" name="Line 99"/>
+          <xdr:cNvPr id="1126" name="Line 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5278,7 +5843,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Text Box 100"/>
+          <xdr:cNvPr id="20" name="Text Box 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5337,7 +5908,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1128" name="Line 101"/>
+          <xdr:cNvPr id="1128" name="Line 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5363,7 +5940,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1129" name="Line 102"/>
+          <xdr:cNvPr id="1129" name="Line 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5389,7 +5972,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1130" name="Line 103"/>
+          <xdr:cNvPr id="1130" name="Line 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5415,7 +6004,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Text Box 104"/>
+          <xdr:cNvPr id="21" name="Text Box 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5474,7 +6069,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1132" name="Line 105"/>
+          <xdr:cNvPr id="1132" name="Line 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5500,7 +6101,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1133" name="Line 106"/>
+          <xdr:cNvPr id="1133" name="Line 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5531,18 +6138,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 107"/>
+        <xdr:cNvPr id="1026" name="AutoShape 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5577,18 +6190,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 108"/>
+        <xdr:cNvPr id="1027" name="AutoShape 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5623,18 +6242,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 109"/>
+        <xdr:cNvPr id="1028" name="AutoShape 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5923,31 +6548,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N283"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -5962,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -5975,7 +6600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5984,7 +6609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -5993,7 +6618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -6002,7 +6627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -6011,7 +6636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
         <v>12</v>
@@ -6024,7 +6649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -6035,7 +6660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
         <v>13</v>
@@ -6048,7 +6673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -6059,7 +6684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
         <v>14</v>
@@ -6072,7 +6697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -6083,7 +6708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -6094,7 +6719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -6105,7 +6730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -6116,7 +6741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
         <v>15</v>
@@ -6129,7 +6754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -6140,7 +6765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -6151,7 +6776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -6162,7 +6787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -6173,7 +6798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -6184,7 +6809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -6195,7 +6820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -6206,7 +6831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3">
         <v>16</v>
@@ -6219,7 +6844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -6230,7 +6855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -6241,7 +6866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -6252,7 +6877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -6263,7 +6888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -6274,7 +6899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3">
         <v>20</v>
@@ -6287,7 +6912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -6298,7 +6923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3">
         <v>22</v>
@@ -6311,7 +6936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -6322,7 +6947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -6333,7 +6958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -6344,7 +6969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -6355,7 +6980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -6366,7 +6991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -6377,7 +7002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -6388,7 +7013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3">
         <v>23</v>
@@ -6401,7 +7026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -6412,7 +7037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -6423,7 +7048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="17" t="s">
         <v>54</v>
@@ -6434,7 +7059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="17" t="s">
         <v>56</v>
@@ -6448,7 +7073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="17" t="s">
         <v>58</v>
@@ -6459,7 +7084,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="17">
         <v>39</v>
@@ -6470,7 +7095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="17">
         <v>40</v>
@@ -6481,7 +7106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="17">
         <v>41</v>
@@ -6492,7 +7117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="17">
         <v>42</v>
@@ -6503,7 +7128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="17">
         <v>43</v>
@@ -6514,7 +7139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="17">
         <v>44</v>
@@ -6525,7 +7150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="17">
         <v>45</v>
@@ -6536,7 +7161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="3">
         <v>46</v>
@@ -6547,7 +7172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -6556,7 +7181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="3">
         <v>47</v>
@@ -6567,7 +7192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -6576,7 +7201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="60.75" thickBot="1">
+    <row r="57" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="23">
         <v>50</v>
@@ -6584,10 +7209,10 @@
       <c r="C57" s="31"/>
       <c r="D57" s="18"/>
       <c r="E57" s="22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="165.75" thickBot="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="23">
         <v>51</v>
@@ -6598,7 +7223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1">
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="17">
         <v>56</v>
@@ -6609,7 +7234,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30.6" customHeight="1" thickBot="1">
+    <row r="60" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="23" t="s">
         <v>72</v>
@@ -6620,7 +7245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45.75" thickBot="1">
+    <row r="61" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="23" t="s">
         <v>74</v>
@@ -6631,7 +7256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>76</v>
       </c>
@@ -6644,7 +7269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="30"/>
       <c r="B63" s="28" t="s">
         <v>78</v>
@@ -6655,7 +7280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="30"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
@@ -6664,7 +7289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
@@ -6673,7 +7298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30.75" thickBot="1">
+    <row r="66" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="30"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
@@ -6682,7 +7307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>84</v>
       </c>
@@ -6697,7 +7322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
       <c r="B68" s="6" t="s">
         <v>101</v>
@@ -6710,7 +7335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="6" t="s">
         <v>103</v>
@@ -6723,7 +7348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
       <c r="B70" s="6" t="s">
         <v>104</v>
@@ -6736,7 +7361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="6" t="s">
         <v>105</v>
@@ -6749,7 +7374,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="6" t="s">
         <v>106</v>
@@ -6762,7 +7387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="6" t="s">
         <v>107</v>
@@ -6775,7 +7400,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="6" t="s">
         <v>108</v>
@@ -6788,7 +7413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -6797,7 +7422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="33"/>
       <c r="B76" s="17" t="s">
         <v>109</v>
@@ -6808,7 +7433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1">
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="33"/>
       <c r="B77" s="17" t="s">
         <v>112</v>
@@ -6819,7 +7444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="33"/>
       <c r="B78" s="17" t="s">
         <v>114</v>
@@ -6830,7 +7455,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1">
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33"/>
       <c r="B79" s="17" t="s">
         <v>115</v>
@@ -6841,7 +7466,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1">
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="33"/>
       <c r="B80" s="17" t="s">
         <v>116</v>
@@ -6852,7 +7477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1">
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="33"/>
       <c r="B81" s="17" t="s">
         <v>118</v>
@@ -6863,7 +7488,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="33"/>
       <c r="B82" s="17" t="s">
         <v>119</v>
@@ -6874,7 +7499,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1">
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33"/>
       <c r="B83" s="17" t="s">
         <v>120</v>
@@ -6885,7 +7510,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1">
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="33"/>
       <c r="B84" s="17" t="s">
         <v>121</v>
@@ -6896,7 +7521,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="17" t="s">
         <v>122</v>
@@ -6907,7 +7532,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1">
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="33"/>
       <c r="B86" s="17" t="s">
         <v>123</v>
@@ -6918,7 +7543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="36" t="s">
         <v>133</v>
       </c>
@@ -6933,7 +7558,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -6942,7 +7567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="6" t="s">
         <v>154</v>
@@ -6955,7 +7580,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="6" t="s">
         <v>155</v>
@@ -6968,7 +7593,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="6" t="s">
         <v>156</v>
@@ -6981,7 +7606,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="6" t="s">
         <v>157</v>
@@ -6994,7 +7619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="6" t="s">
         <v>158</v>
@@ -7007,7 +7632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="6" t="s">
         <v>159</v>
@@ -7020,7 +7645,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="6" t="s">
         <v>160</v>
@@ -7033,7 +7658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="38"/>
       <c r="B96" s="9" t="s">
         <v>161</v>
@@ -7046,7 +7671,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1">
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="38"/>
       <c r="B97" s="17" t="s">
         <v>162</v>
@@ -7057,7 +7682,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1">
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="38"/>
       <c r="B98" s="17" t="s">
         <v>164</v>
@@ -7068,7 +7693,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1">
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="38"/>
       <c r="B99" s="17" t="s">
         <v>166</v>
@@ -7079,7 +7704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1">
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="38"/>
       <c r="B100" s="17" t="s">
         <v>168</v>
@@ -7090,18 +7715,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1">
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="38"/>
       <c r="B101" s="17" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="38"/>
       <c r="B102" s="17" t="s">
         <v>170</v>
@@ -7109,10 +7734,10 @@
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="90.75" thickBot="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="38"/>
       <c r="B103" s="23" t="s">
         <v>171</v>
@@ -7123,7 +7748,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1">
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="38"/>
       <c r="B104" s="3" t="s">
         <v>173</v>
@@ -7134,7 +7759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="3" t="s">
         <v>175</v>
@@ -7145,7 +7770,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="6" t="s">
         <v>177</v>
@@ -7158,7 +7783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -7169,7 +7794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -7180,7 +7805,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -7191,7 +7816,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -7202,7 +7827,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1">
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="38"/>
       <c r="B111" s="9" t="s">
         <v>183</v>
@@ -7215,7 +7840,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1">
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="38"/>
       <c r="B112" s="3" t="s">
         <v>185</v>
@@ -7226,7 +7851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="3" t="s">
         <v>188</v>
@@ -7237,7 +7862,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="B114" s="6" t="s">
         <v>189</v>
@@ -7250,7 +7875,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -7261,7 +7886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -7272,7 +7897,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -7281,7 +7906,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -7292,7 +7917,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="6" t="s">
         <v>195</v>
@@ -7305,7 +7930,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -7316,7 +7941,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1">
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="38"/>
       <c r="B121" s="9" t="s">
         <v>193</v>
@@ -7327,7 +7952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1">
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="38"/>
       <c r="B122" s="17" t="s">
         <v>198</v>
@@ -7338,7 +7963,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="60.75" thickBot="1">
+    <row r="123" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="38"/>
       <c r="B123" s="23" t="s">
         <v>200</v>
@@ -7349,7 +7974,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30.75" thickBot="1">
+    <row r="124" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="41" t="s">
         <v>204</v>
       </c>
@@ -7364,7 +7989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1">
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42"/>
       <c r="B125" s="17" t="s">
         <v>205</v>
@@ -7377,7 +8002,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1">
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="42"/>
       <c r="B126" s="6" t="s">
         <v>208</v>
@@ -7390,7 +8015,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1">
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="42"/>
       <c r="B127" s="17" t="s">
         <v>211</v>
@@ -7403,7 +8028,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="42"/>
       <c r="B128" s="3" t="s">
         <v>214</v>
@@ -7416,7 +8041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1">
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="42"/>
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
@@ -7425,7 +8050,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1">
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="42"/>
       <c r="B130" s="6" t="s">
         <v>217</v>
@@ -7438,7 +8063,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="42"/>
       <c r="B131" s="17" t="s">
         <v>220</v>
@@ -7451,7 +8076,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="42"/>
       <c r="B132" s="6" t="s">
         <v>223</v>
@@ -7464,7 +8089,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="42"/>
       <c r="B133" s="3" t="s">
         <v>233</v>
@@ -7477,7 +8102,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="42"/>
       <c r="B134" s="28" t="s">
         <v>234</v>
@@ -7490,7 +8115,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="42"/>
       <c r="B135" s="70" t="s">
         <v>257</v>
@@ -7503,7 +8128,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="42"/>
       <c r="B136" s="70"/>
       <c r="C136" s="71"/>
@@ -7514,7 +8139,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="42"/>
       <c r="B137" s="70"/>
       <c r="C137" s="71"/>
@@ -7525,7 +8150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="42"/>
       <c r="B138" s="70"/>
       <c r="C138" s="71"/>
@@ -7536,7 +8161,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="42"/>
       <c r="B139" s="70"/>
       <c r="C139" s="71"/>
@@ -7547,7 +8172,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="42"/>
       <c r="B140" s="70"/>
       <c r="C140" s="71"/>
@@ -7558,7 +8183,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="42"/>
       <c r="B141" s="70"/>
       <c r="C141" s="71"/>
@@ -7569,7 +8194,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="42"/>
       <c r="B142" s="70"/>
       <c r="C142" s="71"/>
@@ -7580,7 +8205,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="42"/>
       <c r="B143" s="70"/>
       <c r="C143" s="71"/>
@@ -7591,7 +8216,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="42"/>
       <c r="B144" s="70"/>
       <c r="C144" s="71"/>
@@ -7602,7 +8227,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1">
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="42"/>
       <c r="B145" s="72"/>
       <c r="C145" s="73"/>
@@ -7613,7 +8238,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="42"/>
       <c r="B146" s="51" t="s">
         <v>260</v>
@@ -7624,7 +8249,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1">
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="42"/>
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
@@ -7633,1497 +8258,1398 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="42"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="42"/>
       <c r="B149" s="6" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>231</v>
+        <v>261</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="42"/>
       <c r="B150" s="6" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C150" s="7"/>
-      <c r="D150" s="7" t="s">
-        <v>261</v>
+      <c r="D150" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="42"/>
       <c r="B151" s="6" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="C151" s="7"/>
-      <c r="D151" s="7" t="s">
-        <v>262</v>
+      <c r="D151" s="14" t="s">
+        <v>440</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="42"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
-      <c r="D152" s="7" t="s">
-        <v>263</v>
+      <c r="D152" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="42"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
-      <c r="D153" s="7" t="s">
-        <v>264</v>
+      <c r="D153" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="42"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="7" t="s">
-        <v>265</v>
+      <c r="D154" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="42"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
-      <c r="D155" s="7" t="s">
-        <v>273</v>
+      <c r="D155" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="42"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
-      <c r="D156" s="7" t="s">
-        <v>272</v>
+      <c r="D156" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="E156" s="49" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="42"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
-      <c r="D157" s="7" t="s">
-        <v>276</v>
+      <c r="D157" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="E157" s="49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="42"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
-      <c r="D158" s="7" t="s">
-        <v>277</v>
+      <c r="D158" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="42"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E159" s="49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="B159" s="9"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E159" s="50" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="42"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E160" s="49" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="B160" s="3"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="42"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
-      <c r="D161" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="D161" s="7"/>
       <c r="E161" s="49" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="42"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
+      <c r="B162" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="D162" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E162" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>231</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="42"/>
-      <c r="B163" s="6"/>
+      <c r="B163" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="C163" s="7"/>
-      <c r="D163" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E163" s="49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="D163" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="42"/>
-      <c r="B164" s="6"/>
+      <c r="B164" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="C164" s="7"/>
-      <c r="D164" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E164" s="49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="D164" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="42"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E165" s="49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="D165" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="42"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
-      <c r="D166" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E166" s="49" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="D166" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="42"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
-      <c r="D167" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E167" s="49" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="D167" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="42"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E168" s="49" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="D168" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="42"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E169" s="49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D169" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="42"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="E170" s="50" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="42"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="52" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E171" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="42"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="B172" s="9"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E172" s="50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="42"/>
-      <c r="B173" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="B173" s="3"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="42"/>
       <c r="B174" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C174" s="7"/>
-      <c r="D174" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="42"/>
       <c r="B175" s="6" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="C175" s="7"/>
-      <c r="D175" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="D175" s="7"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="42"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="B176" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="42"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="B177" s="3"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="42"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="B178" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="42"/>
-      <c r="B179" s="6"/>
+      <c r="B179" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="C179" s="7"/>
-      <c r="D179" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="42"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="B180" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="42"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="B181" s="3"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A182" s="42"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E182" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B182" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="42"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E183" s="50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="B183" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="42"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="B184" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="42"/>
-      <c r="B185" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D185" s="7"/>
-      <c r="E185" s="53" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="B185" s="3"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="42"/>
       <c r="B186" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" s="42"/>
+      <c r="B187" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="42"/>
+      <c r="B188" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="11"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" s="42"/>
+      <c r="B189" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="N189" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="42"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="B191" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="57"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="57"/>
+      <c r="B193" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="57"/>
+      <c r="B194" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="57"/>
+      <c r="B195" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="57"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="57"/>
+      <c r="B197" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="57"/>
+      <c r="B198" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="57"/>
+      <c r="B199" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="57"/>
+      <c r="B200" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="9" t="s">
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="57"/>
+      <c r="B201" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="57"/>
+      <c r="B202" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="11"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="42"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="42"/>
-      <c r="B189" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="54" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="42"/>
-      <c r="B190" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="8"/>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="11"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="42"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" ht="17.25">
-      <c r="A193" s="42"/>
-      <c r="B193" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
-      <c r="A194" s="42"/>
-      <c r="B194" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
-      <c r="A196" s="42"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="52" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
-      <c r="A197" s="42"/>
-      <c r="B197" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="53" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
-      <c r="A198" s="42"/>
-      <c r="B198" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="8"/>
-    </row>
-    <row r="199" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="11"/>
-    </row>
-    <row r="200" spans="1:14">
-      <c r="A200" s="42"/>
-      <c r="B200" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="N200" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14">
-      <c r="A202" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="B202" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="57"/>
-      <c r="B203" s="58"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B203" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="57"/>
-      <c r="B204" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B204" s="60"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="57"/>
-      <c r="B205" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
+      <c r="B205" s="58"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="57"/>
-      <c r="B206" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B206" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="57"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B207" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="57"/>
       <c r="B208" s="59" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="18"/>
       <c r="E208" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="57"/>
       <c r="B209" s="59" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="18"/>
       <c r="E209" s="21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="57"/>
       <c r="B210" s="59" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
       <c r="E210" s="21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A211" s="57"/>
-      <c r="B211" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A212" s="57"/>
-      <c r="B212" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A213" s="57"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B211" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="62"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="62"/>
       <c r="B213" s="59" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C213" s="18"/>
       <c r="D213" s="18"/>
-      <c r="E213" s="21" t="s">
+      <c r="E213" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="62"/>
+      <c r="B214" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="62"/>
+      <c r="B215" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="62"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="62"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E217" s="49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="62"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E218" s="49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="62"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E219" s="49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="62"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="62"/>
+      <c r="B221" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="C221" s="18"/>
+      <c r="D221" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="62"/>
+      <c r="B222" s="59" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="57"/>
-      <c r="B214" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="5" t="s">
+      <c r="C222" s="18"/>
+      <c r="D222" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="20" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="57"/>
-      <c r="B215" s="60"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="8" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="62"/>
+      <c r="B223" s="51" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A216" s="57"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A217" s="57"/>
-      <c r="B217" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="21" t="s">
+      <c r="C223" s="4"/>
+      <c r="D223" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E223" s="63" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A218" s="57"/>
-      <c r="B218" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="21" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="62"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E224" s="49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A219" s="57"/>
-      <c r="B219" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="21" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="62"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" s="49" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A220" s="57"/>
-      <c r="B220" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="21" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="62"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A221" s="57"/>
-      <c r="B221" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="B222" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A223" s="62"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A224" s="62"/>
-      <c r="B224" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A225" s="62"/>
-      <c r="B225" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="C225" s="18"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="62"/>
-      <c r="B226" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" s="63" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="62"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
       <c r="D227" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E227" s="49" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="E227" s="65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="62"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E228" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="B228" s="9"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="62"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E229" s="49" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="B229" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="67" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="62"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E230" s="49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B230" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="62"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" s="50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B231" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="62"/>
       <c r="B232" s="59" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C232" s="18"/>
-      <c r="D232" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E232" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D232" s="18"/>
+      <c r="E232" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="62"/>
-      <c r="B233" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="C233" s="18"/>
-      <c r="D233" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E233" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="B233" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="62"/>
-      <c r="B234" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E234" s="63" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="B234" s="9"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="62"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E235" s="49" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="B235" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="62"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E236" s="49" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="B236" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="62"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E237" s="49" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="B237" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="62"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="E238" s="65" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B238" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="62"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="66" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B239" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="62"/>
       <c r="B240" s="59" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C240" s="18"/>
-      <c r="D240" s="18"/>
-      <c r="E240" s="67" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D240" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="E240" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="62"/>
       <c r="B241" s="59" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D241" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="E241" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="62"/>
       <c r="B242" s="59" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C242" s="18"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D242" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="E242" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="62"/>
       <c r="B243" s="59" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C243" s="18"/>
       <c r="D243" s="18"/>
       <c r="E243" s="21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="62"/>
       <c r="B244" s="51" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="D244" s="13" t="s">
+        <v>250</v>
+      </c>
       <c r="E244" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="62"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B245" s="6"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="62"/>
-      <c r="B246" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C246" s="18"/>
-      <c r="D246" s="18"/>
-      <c r="E246" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B246" s="6"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="62"/>
-      <c r="B247" s="59" t="s">
-        <v>401</v>
-      </c>
-      <c r="C247" s="18"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="21" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B247" s="9"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="62"/>
       <c r="B248" s="59" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="18"/>
       <c r="E248" s="21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="62"/>
       <c r="B249" s="59" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="18"/>
       <c r="E249" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="15.75" thickBot="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="62"/>
-      <c r="B250" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="45.75" thickBot="1">
+      <c r="B250" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="62"/>
-      <c r="B251" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="C251" s="18"/>
-      <c r="D251" s="68" t="s">
-        <v>465</v>
-      </c>
-      <c r="E251" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="30.75" thickBot="1">
+      <c r="B251" s="6"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="62"/>
-      <c r="B252" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="C252" s="18"/>
-      <c r="D252" s="68" t="s">
-        <v>464</v>
-      </c>
-      <c r="E252" s="22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="30.75" thickBot="1">
+      <c r="B252" s="6"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="62"/>
-      <c r="B253" s="59" t="s">
-        <v>411</v>
-      </c>
-      <c r="C253" s="18"/>
-      <c r="D253" s="69" t="s">
-        <v>463</v>
-      </c>
-      <c r="E253" s="22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B253" s="6"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="62"/>
-      <c r="B254" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="B254" s="6"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="62"/>
-      <c r="B255" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="B255" s="9"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="62"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E256" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="B256" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C256" s="18"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="62"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E257" s="8"/>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B257" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="62"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B258" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="62"/>
       <c r="B259" s="59" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="18"/>
       <c r="E259" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" thickBot="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="62"/>
       <c r="B260" s="59" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="18"/>
       <c r="E260" s="21" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="62"/>
-      <c r="B261" s="51" t="s">
-        <v>422</v>
-      </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="B261" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C261" s="18"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="62"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="B262" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="C262" s="18"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="62"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="7"/>
-      <c r="E263" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="B263" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="C263" s="18"/>
+      <c r="D263" s="18"/>
+      <c r="E263" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="62"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="7"/>
-      <c r="E264" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="B264" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="C264" s="18"/>
+      <c r="D264" s="18"/>
+      <c r="E264" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="62"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="7"/>
-      <c r="E265" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A266" s="62"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A267" s="62"/>
-      <c r="B267" s="59" t="s">
-        <v>429</v>
-      </c>
-      <c r="C267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A268" s="62"/>
-      <c r="B268" s="59" t="s">
-        <v>428</v>
+      <c r="B265" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="B266" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="38"/>
+      <c r="B267" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="38"/>
+      <c r="B268" s="17" t="s">
+        <v>406</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="18"/>
       <c r="E268" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A269" s="62"/>
-      <c r="B269" s="59" t="s">
-        <v>430</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="38"/>
+      <c r="B269" s="17" t="s">
+        <v>408</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="18"/>
       <c r="E269" s="21" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A270" s="62"/>
-      <c r="B270" s="59" t="s">
-        <v>432</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="38"/>
+      <c r="B270" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="18"/>
       <c r="E270" s="21" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A271" s="62"/>
-      <c r="B271" s="59" t="s">
-        <v>434</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="38"/>
+      <c r="B271" s="17" t="s">
+        <v>413</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="18"/>
       <c r="E271" s="21" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A272" s="62"/>
-      <c r="B272" s="59" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="38"/>
+      <c r="B272" s="17" t="s">
+        <v>414</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="18"/>
       <c r="E272" s="21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A273" s="62"/>
-      <c r="B273" s="59" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="38"/>
+      <c r="B273" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="C273" s="18"/>
       <c r="D273" s="18"/>
       <c r="E273" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A274" s="62"/>
-      <c r="B274" s="59" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="38"/>
+      <c r="B274" s="17" t="s">
+        <v>431</v>
       </c>
       <c r="C274" s="18"/>
       <c r="D274" s="18"/>
       <c r="E274" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A275" s="62"/>
-      <c r="B275" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A276" s="62"/>
-      <c r="B276" s="59" t="s">
-        <v>444</v>
-      </c>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="21" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="B277" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="5"/>
-    </row>
-    <row r="278" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A278" s="38"/>
-      <c r="B278" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A279" s="38"/>
-      <c r="B279" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="21" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A280" s="38"/>
-      <c r="B280" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A281" s="38"/>
-      <c r="B281" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
-      <c r="E281" s="21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A282" s="38"/>
-      <c r="B282" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C282" s="18"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A283" s="38"/>
-      <c r="B283" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="C283" s="18"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="21" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -9134,7 +9660,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="250" max="16383" man="1"/>
+    <brk id="239" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="4" max="1048575" man="1"/>

--- a/SAVfile.xlsx
+++ b/SAVfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\source\repos\civ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2DEB1-515D-4612-BC34-5498F712A654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765CF30-F178-46F1-80C2-0393FE4DBAC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="459">
   <si>
     <t>BYTE OFFSET (DEC)</t>
   </si>
@@ -1588,6 +1588,12 @@
   </si>
   <si>
     <t>river present</t>
+  </si>
+  <si>
+    <t>offsetO + 1429-1430</t>
+  </si>
+  <si>
+    <t>Zoom (short) = -7 (min) … +8 (max), 0=std. zoom</t>
   </si>
 </sst>
 </file>
@@ -6556,11 +6562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N274"/>
+  <dimension ref="A1:N275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6629,10 +6635,10 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6642,22 +6648,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6666,22 +6672,22 @@
         <v>13</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -6691,10 +6697,10 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6702,10 +6708,10 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6724,21 +6730,21 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>19</v>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -6748,10 +6754,10 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6759,10 +6765,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -6770,10 +6776,10 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -6781,10 +6787,10 @@
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6792,10 +6798,10 @@
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -6803,10 +6809,10 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6814,21 +6820,21 @@
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>23</v>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6838,10 +6844,10 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -6849,10 +6855,10 @@
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6860,10 +6866,10 @@
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -6871,10 +6877,10 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6882,10 +6888,10 @@
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6893,33 +6899,33 @@
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>20</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="12" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6930,10 +6936,10 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6941,10 +6947,10 @@
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6952,10 +6958,10 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6963,10 +6969,10 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6974,10 +6980,10 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6985,10 +6991,10 @@
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6996,21 +7002,21 @@
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>50</v>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7020,10 +7026,10 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7042,20 +7048,20 @@
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="20" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="50" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9650,6 +9656,17 @@
       <c r="D274" s="18"/>
       <c r="E274" s="21" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="38"/>
+      <c r="B275" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="21" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
